--- a/dataFiles/gummyBears_Spring2023.xlsx
+++ b/dataFiles/gummyBears_Spring2023.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njh5464/Documents/GitHub/STAT461/dataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B05F21C-1AE5-DE4B-945B-6C1CA69BF94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C126923-579D-1A49-8D5E-40F3EB6A9042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24660" yWindow="5100" windowWidth="28040" windowHeight="17440" xr2:uid="{DA99D025-2CD6-1442-BD01-DA024A97CD83}"/>
+    <workbookView xWindow="22320" yWindow="4980" windowWidth="28040" windowHeight="17440" xr2:uid="{DA99D025-2CD6-1442-BD01-DA024A97CD83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="25">
   <si>
     <t>Launch Angle</t>
   </si>
@@ -100,12 +100,24 @@
   <si>
     <t>3A</t>
   </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +129,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -140,9 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30F05D9-ABDF-1F42-8283-4A272CBAC0B5}">
-  <dimension ref="A1:E401"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J351" sqref="J351"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7321,6 +7348,1366 @@
         <v>164</v>
       </c>
     </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>8</v>
+      </c>
+      <c r="B402" t="s">
+        <v>6</v>
+      </c>
+      <c r="C402" t="s">
+        <v>21</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>8</v>
+      </c>
+      <c r="B403" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403" t="s">
+        <v>21</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>8</v>
+      </c>
+      <c r="B404" t="s">
+        <v>6</v>
+      </c>
+      <c r="C404" t="s">
+        <v>21</v>
+      </c>
+      <c r="D404">
+        <v>3</v>
+      </c>
+      <c r="E404">
+        <v>246.5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>8</v>
+      </c>
+      <c r="B405" t="s">
+        <v>6</v>
+      </c>
+      <c r="C405" t="s">
+        <v>21</v>
+      </c>
+      <c r="D405">
+        <v>4</v>
+      </c>
+      <c r="E405">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>8</v>
+      </c>
+      <c r="B406" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406" t="s">
+        <v>21</v>
+      </c>
+      <c r="D406">
+        <v>5</v>
+      </c>
+      <c r="E406">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>8</v>
+      </c>
+      <c r="B407" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407" t="s">
+        <v>21</v>
+      </c>
+      <c r="D407">
+        <v>6</v>
+      </c>
+      <c r="E407">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>8</v>
+      </c>
+      <c r="B408" t="s">
+        <v>6</v>
+      </c>
+      <c r="C408" t="s">
+        <v>21</v>
+      </c>
+      <c r="D408">
+        <v>7</v>
+      </c>
+      <c r="E408">
+        <v>207.3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>8</v>
+      </c>
+      <c r="B409" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409" t="s">
+        <v>21</v>
+      </c>
+      <c r="D409">
+        <v>8</v>
+      </c>
+      <c r="E409">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>8</v>
+      </c>
+      <c r="B410" t="s">
+        <v>6</v>
+      </c>
+      <c r="C410" t="s">
+        <v>21</v>
+      </c>
+      <c r="D410">
+        <v>9</v>
+      </c>
+      <c r="E410">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>8</v>
+      </c>
+      <c r="B411" t="s">
+        <v>6</v>
+      </c>
+      <c r="C411" t="s">
+        <v>21</v>
+      </c>
+      <c r="D411">
+        <v>10</v>
+      </c>
+      <c r="E411">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>8</v>
+      </c>
+      <c r="B412" t="s">
+        <v>6</v>
+      </c>
+      <c r="C412" t="s">
+        <v>21</v>
+      </c>
+      <c r="D412">
+        <v>11</v>
+      </c>
+      <c r="E412">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>8</v>
+      </c>
+      <c r="B413" t="s">
+        <v>6</v>
+      </c>
+      <c r="C413" t="s">
+        <v>21</v>
+      </c>
+      <c r="D413">
+        <v>12</v>
+      </c>
+      <c r="E413">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>8</v>
+      </c>
+      <c r="B414" t="s">
+        <v>6</v>
+      </c>
+      <c r="C414" t="s">
+        <v>21</v>
+      </c>
+      <c r="D414">
+        <v>13</v>
+      </c>
+      <c r="E414">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>8</v>
+      </c>
+      <c r="B415" t="s">
+        <v>6</v>
+      </c>
+      <c r="C415" t="s">
+        <v>21</v>
+      </c>
+      <c r="D415">
+        <v>14</v>
+      </c>
+      <c r="E415">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>8</v>
+      </c>
+      <c r="B416" t="s">
+        <v>6</v>
+      </c>
+      <c r="C416" t="s">
+        <v>21</v>
+      </c>
+      <c r="D416">
+        <v>15</v>
+      </c>
+      <c r="E416">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>8</v>
+      </c>
+      <c r="B417" t="s">
+        <v>6</v>
+      </c>
+      <c r="C417" t="s">
+        <v>21</v>
+      </c>
+      <c r="D417">
+        <v>16</v>
+      </c>
+      <c r="E417">
+        <v>243.5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>8</v>
+      </c>
+      <c r="B418" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418" t="s">
+        <v>21</v>
+      </c>
+      <c r="D418">
+        <v>17</v>
+      </c>
+      <c r="E418">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>8</v>
+      </c>
+      <c r="B419" t="s">
+        <v>6</v>
+      </c>
+      <c r="C419" t="s">
+        <v>21</v>
+      </c>
+      <c r="D419">
+        <v>18</v>
+      </c>
+      <c r="E419">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>8</v>
+      </c>
+      <c r="B420" t="s">
+        <v>6</v>
+      </c>
+      <c r="C420" t="s">
+        <v>21</v>
+      </c>
+      <c r="D420">
+        <v>19</v>
+      </c>
+      <c r="E420">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>8</v>
+      </c>
+      <c r="B421" t="s">
+        <v>6</v>
+      </c>
+      <c r="C421" t="s">
+        <v>21</v>
+      </c>
+      <c r="D421">
+        <v>20</v>
+      </c>
+      <c r="E421">
+        <v>260.60000000000002</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>8</v>
+      </c>
+      <c r="B422" t="s">
+        <v>6</v>
+      </c>
+      <c r="C422" t="s">
+        <v>21</v>
+      </c>
+      <c r="D422">
+        <v>21</v>
+      </c>
+      <c r="E422">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>8</v>
+      </c>
+      <c r="B423" t="s">
+        <v>6</v>
+      </c>
+      <c r="C423" t="s">
+        <v>21</v>
+      </c>
+      <c r="D423">
+        <v>22</v>
+      </c>
+      <c r="E423">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>8</v>
+      </c>
+      <c r="B424" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424" t="s">
+        <v>21</v>
+      </c>
+      <c r="D424">
+        <v>23</v>
+      </c>
+      <c r="E424">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>8</v>
+      </c>
+      <c r="B425" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425" t="s">
+        <v>21</v>
+      </c>
+      <c r="D425">
+        <v>24</v>
+      </c>
+      <c r="E425">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>8</v>
+      </c>
+      <c r="B426" t="s">
+        <v>6</v>
+      </c>
+      <c r="C426" t="s">
+        <v>21</v>
+      </c>
+      <c r="D426">
+        <v>25</v>
+      </c>
+      <c r="E426">
+        <v>203.7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>8</v>
+      </c>
+      <c r="B427" t="s">
+        <v>6</v>
+      </c>
+      <c r="C427" t="s">
+        <v>21</v>
+      </c>
+      <c r="D427">
+        <v>26</v>
+      </c>
+      <c r="E427">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>8</v>
+      </c>
+      <c r="B428" t="s">
+        <v>6</v>
+      </c>
+      <c r="C428" t="s">
+        <v>21</v>
+      </c>
+      <c r="D428">
+        <v>27</v>
+      </c>
+      <c r="E428">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>8</v>
+      </c>
+      <c r="B429" t="s">
+        <v>6</v>
+      </c>
+      <c r="C429" t="s">
+        <v>21</v>
+      </c>
+      <c r="D429">
+        <v>28</v>
+      </c>
+      <c r="E429">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>8</v>
+      </c>
+      <c r="B430" t="s">
+        <v>6</v>
+      </c>
+      <c r="C430" t="s">
+        <v>21</v>
+      </c>
+      <c r="D430">
+        <v>29</v>
+      </c>
+      <c r="E430">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>8</v>
+      </c>
+      <c r="B431" t="s">
+        <v>6</v>
+      </c>
+      <c r="C431" t="s">
+        <v>21</v>
+      </c>
+      <c r="D431">
+        <v>30</v>
+      </c>
+      <c r="E431">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>8</v>
+      </c>
+      <c r="B432" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432" t="s">
+        <v>21</v>
+      </c>
+      <c r="D432">
+        <v>31</v>
+      </c>
+      <c r="E432">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>8</v>
+      </c>
+      <c r="B433" t="s">
+        <v>6</v>
+      </c>
+      <c r="C433" t="s">
+        <v>21</v>
+      </c>
+      <c r="D433">
+        <v>32</v>
+      </c>
+      <c r="E433">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>8</v>
+      </c>
+      <c r="B434" t="s">
+        <v>6</v>
+      </c>
+      <c r="C434" t="s">
+        <v>21</v>
+      </c>
+      <c r="D434">
+        <v>33</v>
+      </c>
+      <c r="E434">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>8</v>
+      </c>
+      <c r="B435" t="s">
+        <v>6</v>
+      </c>
+      <c r="C435" t="s">
+        <v>21</v>
+      </c>
+      <c r="D435">
+        <v>34</v>
+      </c>
+      <c r="E435">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>8</v>
+      </c>
+      <c r="B436" t="s">
+        <v>6</v>
+      </c>
+      <c r="C436" t="s">
+        <v>21</v>
+      </c>
+      <c r="D436">
+        <v>35</v>
+      </c>
+      <c r="E436">
+        <v>266.5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>8</v>
+      </c>
+      <c r="B437" t="s">
+        <v>6</v>
+      </c>
+      <c r="C437" t="s">
+        <v>21</v>
+      </c>
+      <c r="D437">
+        <v>36</v>
+      </c>
+      <c r="E437">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>8</v>
+      </c>
+      <c r="B438" t="s">
+        <v>6</v>
+      </c>
+      <c r="C438" t="s">
+        <v>21</v>
+      </c>
+      <c r="D438">
+        <v>37</v>
+      </c>
+      <c r="E438">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>8</v>
+      </c>
+      <c r="B439" t="s">
+        <v>6</v>
+      </c>
+      <c r="C439" t="s">
+        <v>21</v>
+      </c>
+      <c r="D439">
+        <v>38</v>
+      </c>
+      <c r="E439">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>8</v>
+      </c>
+      <c r="B440" t="s">
+        <v>6</v>
+      </c>
+      <c r="C440" t="s">
+        <v>21</v>
+      </c>
+      <c r="D440">
+        <v>39</v>
+      </c>
+      <c r="E440">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>8</v>
+      </c>
+      <c r="B441" t="s">
+        <v>6</v>
+      </c>
+      <c r="C441" t="s">
+        <v>21</v>
+      </c>
+      <c r="D441">
+        <v>40</v>
+      </c>
+      <c r="E441">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D442" s="3">
+        <v>1</v>
+      </c>
+      <c r="E442" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D443" s="3">
+        <v>2</v>
+      </c>
+      <c r="E443" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D444" s="3">
+        <v>3</v>
+      </c>
+      <c r="E444" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D445" s="3">
+        <v>4</v>
+      </c>
+      <c r="E445" s="3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D446" s="3">
+        <v>5</v>
+      </c>
+      <c r="E446" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D447" s="3">
+        <v>6</v>
+      </c>
+      <c r="E447" s="3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D448" s="3">
+        <v>7</v>
+      </c>
+      <c r="E448" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D449" s="3">
+        <v>8</v>
+      </c>
+      <c r="E449" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D450" s="3">
+        <v>9</v>
+      </c>
+      <c r="E450" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D451" s="3">
+        <v>10</v>
+      </c>
+      <c r="E451" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D452" s="3">
+        <v>11</v>
+      </c>
+      <c r="E452" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D453" s="3">
+        <v>12</v>
+      </c>
+      <c r="E453" s="3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D454" s="3">
+        <v>13</v>
+      </c>
+      <c r="E454" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D455" s="3">
+        <v>14</v>
+      </c>
+      <c r="E455" s="3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D456" s="3">
+        <v>15</v>
+      </c>
+      <c r="E456" s="3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D457" s="3">
+        <v>16</v>
+      </c>
+      <c r="E457" s="3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D458" s="3">
+        <v>17</v>
+      </c>
+      <c r="E458" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D459" s="3">
+        <v>18</v>
+      </c>
+      <c r="E459" s="3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D460" s="3">
+        <v>19</v>
+      </c>
+      <c r="E460" s="3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D461" s="3">
+        <v>20</v>
+      </c>
+      <c r="E461" s="3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D462" s="3">
+        <v>21</v>
+      </c>
+      <c r="E462" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D463" s="3">
+        <v>22</v>
+      </c>
+      <c r="E463" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D464" s="3">
+        <v>23</v>
+      </c>
+      <c r="E464" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A465" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D465" s="3">
+        <v>24</v>
+      </c>
+      <c r="E465" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A466" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D466" s="3">
+        <v>25</v>
+      </c>
+      <c r="E466" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A467" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D467" s="3">
+        <v>26</v>
+      </c>
+      <c r="E467" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D468" s="3">
+        <v>27</v>
+      </c>
+      <c r="E468" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D469" s="3">
+        <v>28</v>
+      </c>
+      <c r="E469" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A470" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D470" s="3">
+        <v>29</v>
+      </c>
+      <c r="E470" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A471" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D471" s="3">
+        <v>30</v>
+      </c>
+      <c r="E471" s="3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A472" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D472" s="3">
+        <v>31</v>
+      </c>
+      <c r="E472" s="3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D473" s="3">
+        <v>32</v>
+      </c>
+      <c r="E473" s="3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D474" s="3">
+        <v>33</v>
+      </c>
+      <c r="E474" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D475" s="3">
+        <v>34</v>
+      </c>
+      <c r="E475" s="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D476" s="3">
+        <v>35</v>
+      </c>
+      <c r="E476" s="3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A477" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D477" s="3">
+        <v>36</v>
+      </c>
+      <c r="E477" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A478" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D478" s="3">
+        <v>37</v>
+      </c>
+      <c r="E478" s="3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A479" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D479" s="3">
+        <v>38</v>
+      </c>
+      <c r="E479" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A480" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D480" s="3">
+        <v>39</v>
+      </c>
+      <c r="E480" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A481" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D481" s="3">
+        <v>40</v>
+      </c>
+      <c r="E481" s="3">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
